--- a/torihiki.xlsx
+++ b/torihiki.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E33179-C8A2-408A-ADE5-E33F2CB7C20C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fai\Python\pythonnFandation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B981FA-7000-428B-B3CA-DE17B0ED4DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{994CC68E-CFE2-4398-874D-DE3F4CDA48B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="集計" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -84,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,14 +121,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -144,7 +141,7 @@
       <numFmt numFmtId="32" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="m/d;@"/>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,14 +157,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28812F06-D028-44DD-9A6E-E914B718710F}" name="テーブル1" displayName="テーブル1" ref="A2:F8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A2:F8" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{85B727D7-BDA0-45DD-A300-34ED50D7B432}" name="No"/>
-    <tableColumn id="2" xr3:uid="{9A7ACF41-EDF0-4E4D-8A9B-F5E03770EB7E}" name="取引先"/>
-    <tableColumn id="3" xr3:uid="{1124A5AA-5948-4438-B511-40CD162C7561}" name="担当者"/>
-    <tableColumn id="4" xr3:uid="{2C3F223F-6727-484E-BF8D-77F342C15FC9}" name="日付" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{997AEE93-80F0-411D-8944-DB1F2F0CC7D7}" name="注文番号"/>
-    <tableColumn id="6" xr3:uid="{C06D7402-31DF-4150-B970-6DC8525C26B6}" name="取引金額" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="取引先"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="担当者"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="日付" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="注文番号"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="取引金額" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,22 +466,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED10907-0923-4166-96C7-D6B20AB01632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -504,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -514,17 +511,17 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>41920</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>-560000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -534,17 +531,17 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>41920</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>430000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -554,17 +551,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>41928</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -574,17 +571,17 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>41934</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>-460000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -594,17 +591,17 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>41935</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>410000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -614,22 +611,68 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>41935</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-1020000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1434000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>